--- a/static/data/DonateNYC.xlsx
+++ b/static/data/DonateNYC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="21160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DonateNYC.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="427">
   <si>
     <t>name</t>
   </si>
@@ -1420,6 +1420,45 @@
   </si>
   <si>
     <t>picksup</t>
+  </si>
+  <si>
+    <t>Habitat For Humanity NYC ReStore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62-01 Northern Blvd. </t>
+  </si>
+  <si>
+    <t>Home Appliances</t>
+  </si>
+  <si>
+    <t>(646) 876-9460</t>
+  </si>
+  <si>
+    <t>https://habitatnyc.org/restore</t>
+  </si>
+  <si>
+    <t>Materials for the Arts</t>
+  </si>
+  <si>
+    <t>0930,1630</t>
+  </si>
+  <si>
+    <t>Family Service Network of NY, Inc</t>
+  </si>
+  <si>
+    <t>1420 Bushwick Ave</t>
+  </si>
+  <si>
+    <t>home Appliances</t>
+  </si>
+  <si>
+    <t>0900,1300</t>
+  </si>
+  <si>
+    <t>(718) 455-6010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2632 Atlantic Avenue 1st &amp; 2nd </t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1520,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2781">
+  <cellStyleXfs count="2842">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4263,8 +4302,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4272,8 +4372,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2791"/>
   </cellXfs>
-  <cellStyles count="2781">
+  <cellStyles count="2842">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5664,6 +5765,61 @@
     <cellStyle name="Followed Hyperlink" xfId="2776" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2778" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2793" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2795" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2797" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2799" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2801" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2803" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2805" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2807" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2809" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2811" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2813" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2815" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2817" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2819" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2821" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2823" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2825" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2827" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2829" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2831" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2833" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2835" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2837" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2839" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2841" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7054,6 +7210,12 @@
     <cellStyle name="Hyperlink" xfId="2775" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2777" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2791" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7329,10 +7491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q129"/>
+  <dimension ref="A1:Q138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7618,51 +7780,51 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>397</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>398</v>
+        <v>258</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>398</v>
+        <v>258</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>398</v>
+        <v>258</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>398</v>
+        <v>258</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>398</v>
+        <v>258</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>398</v>
+        <v>258</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="M6" t="s">
-        <v>39</v>
+        <v>258</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="N6">
-        <v>11215</v>
-      </c>
-      <c r="O6" t="s">
+        <v>11102</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>64</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -7674,13 +7836,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>397</v>
       </c>
       <c r="D7" t="s">
         <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>398</v>
@@ -7724,52 +7886,52 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>235</v>
+        <v>398</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>235</v>
+        <v>398</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>235</v>
+        <v>398</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>235</v>
+        <v>398</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>235</v>
+        <v>398</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>235</v>
+        <v>398</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>235</v>
+        <v>398</v>
       </c>
       <c r="M8" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N8">
-        <v>10002</v>
+        <v>11215</v>
       </c>
       <c r="O8" t="s">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>207</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -7777,49 +7939,52 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>355</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
         <v>132</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>357</v>
+        <v>235</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>356</v>
+        <v>235</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>358</v>
+        <v>235</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="N9">
-        <v>11103</v>
+        <v>10002</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -7830,13 +7995,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>357</v>
@@ -7877,52 +8042,49 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>370</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>239</v>
+        <v>357</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N11">
-        <v>11238</v>
+        <v>11103</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -7933,13 +8095,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>370</v>
       </c>
       <c r="D12" t="s">
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>239</v>
@@ -7983,52 +8145,52 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>264</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>266</v>
+        <v>239</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>267</v>
+        <v>239</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="M13" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N13">
-        <v>10028</v>
+        <v>11238</v>
       </c>
       <c r="O13" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -8036,52 +8198,52 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="E14" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>230</v>
+      <c r="F14" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>230</v>
+        <v>266</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="M14" t="s">
         <v>8</v>
       </c>
       <c r="N14">
-        <v>10003</v>
+        <v>10028</v>
       </c>
       <c r="O14" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -8089,52 +8251,52 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>400</v>
+        <v>198</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>231</v>
+        <v>132</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>39</v>
+        <v>238</v>
+      </c>
+      <c r="M15" t="s">
+        <v>8</v>
       </c>
       <c r="N15">
-        <v>11213</v>
+        <v>10003</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -8145,13 +8307,13 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>400</v>
       </c>
       <c r="D16" t="s">
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>410</v>
@@ -8174,7 +8336,7 @@
       <c r="L16" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N16">
@@ -8195,52 +8357,52 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>241</v>
+        <v>410</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>241</v>
+        <v>410</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>241</v>
+        <v>410</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>241</v>
+        <v>410</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>241</v>
+        <v>410</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="M17" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N17">
-        <v>10010</v>
+        <v>11213</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -8257,7 +8419,7 @@
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>241</v>
@@ -8301,52 +8463,52 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>231</v>
+        <v>241</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="M19" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="N19">
-        <v>11230</v>
+        <v>10010</v>
       </c>
       <c r="O19" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -8360,13 +8522,13 @@
         <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>243</v>
@@ -8386,7 +8548,7 @@
       <c r="L20" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" t="s">
         <v>39</v>
       </c>
       <c r="N20">
@@ -8416,10 +8578,10 @@
         <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>243</v>
@@ -8439,7 +8601,7 @@
       <c r="L21" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N21">
@@ -8469,7 +8631,7 @@
         <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>243</v>
@@ -8513,52 +8675,52 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>314</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>313</v>
+        <v>231</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="M23" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N23">
-        <v>10028</v>
+        <v>11230</v>
       </c>
       <c r="O23" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -8566,49 +8728,52 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E24" t="s">
         <v>132</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>337</v>
+        <v>315</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="M24" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="N24">
-        <v>11105</v>
+        <v>10028</v>
       </c>
       <c r="O24" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="P24">
         <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -8616,46 +8781,46 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>336</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
         <v>132</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>230</v>
+        <v>329</v>
       </c>
       <c r="M25" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N25">
-        <v>10003</v>
+        <v>11105</v>
       </c>
       <c r="O25" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -8666,49 +8831,49 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>301</v>
+        <v>195</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>303</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="N26">
-        <v>11231</v>
+        <v>10003</v>
       </c>
       <c r="O26" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -8716,52 +8881,49 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="M27" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N27">
-        <v>10018</v>
+        <v>11231</v>
       </c>
       <c r="O27" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="P27">
         <v>1</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -8769,52 +8931,52 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>335</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="M28" t="s">
         <v>8</v>
       </c>
       <c r="N28">
-        <v>10001</v>
+        <v>10018</v>
       </c>
       <c r="O28" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="P28">
         <v>1</v>
       </c>
       <c r="Q28" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -8828,10 +8990,10 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>229</v>
@@ -8875,43 +9037,43 @@
         <v>29</v>
       </c>
       <c r="B30">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="C30" t="s">
-        <v>269</v>
-      </c>
       <c r="D30" t="s">
-        <v>270</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
         <v>132</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="M30" t="s">
         <v>8</v>
       </c>
       <c r="N30">
-        <v>10023</v>
+        <v>10001</v>
       </c>
       <c r="O30" t="s">
         <v>21</v>
@@ -8931,13 +9093,13 @@
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>271</v>
@@ -8981,16 +9143,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>271</v>
@@ -9017,7 +9179,7 @@
         <v>8</v>
       </c>
       <c r="N32">
-        <v>10128</v>
+        <v>10023</v>
       </c>
       <c r="O32" t="s">
         <v>21</v>
@@ -9037,13 +9199,13 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="D33" t="s">
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>271</v>
@@ -9087,43 +9249,43 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>295</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="M34" t="s">
         <v>8</v>
       </c>
       <c r="N34">
-        <v>10024</v>
+        <v>10128</v>
       </c>
       <c r="O34" t="s">
         <v>21</v>
@@ -9143,31 +9305,31 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>298</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>297</v>
@@ -9193,43 +9355,43 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>295</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M36" t="s">
         <v>8</v>
       </c>
       <c r="N36">
-        <v>10010</v>
+        <v>10024</v>
       </c>
       <c r="O36" t="s">
         <v>21</v>
@@ -9249,13 +9411,13 @@
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="D37" t="s">
         <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>296</v>
@@ -9299,13 +9461,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>295</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -9335,7 +9497,7 @@
         <v>8</v>
       </c>
       <c r="N38">
-        <v>10035</v>
+        <v>10010</v>
       </c>
       <c r="O38" t="s">
         <v>21</v>
@@ -9352,43 +9514,43 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="N39">
-        <v>11201</v>
+        <v>10035</v>
       </c>
       <c r="O39" t="s">
         <v>21</v>
@@ -9408,13 +9570,13 @@
         <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>319</v>
       </c>
       <c r="D40" t="s">
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>320</v>
@@ -9435,9 +9597,9 @@
         <v>320</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="M40" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M40" t="s">
         <v>39</v>
       </c>
       <c r="N40">
@@ -9458,43 +9620,43 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="M41" t="s">
-        <v>8</v>
+        <v>322</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="N41">
-        <v>10011</v>
+        <v>11201</v>
       </c>
       <c r="O41" t="s">
         <v>21</v>
@@ -9514,13 +9676,13 @@
         <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>364</v>
       </c>
       <c r="D42" t="s">
         <v>118</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>365</v>
@@ -9564,43 +9726,43 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="M43" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="N43">
-        <v>11101</v>
+        <v>10011</v>
       </c>
       <c r="O43" t="s">
         <v>21</v>
@@ -9620,13 +9782,13 @@
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>364</v>
       </c>
       <c r="D44" t="s">
         <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>376</v>
@@ -9670,43 +9832,43 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="M45" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N45">
-        <v>10011</v>
+        <v>11101</v>
       </c>
       <c r="O45" t="s">
         <v>21</v>
@@ -9726,13 +9888,13 @@
         <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>364</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>399</v>
@@ -9776,49 +9938,52 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>393</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E47" t="s">
         <v>132</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="M47" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="N47">
-        <v>11385</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>144</v>
+        <v>10011</v>
+      </c>
+      <c r="O47" t="s">
+        <v>21</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -9826,52 +9991,49 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="E48" t="s">
         <v>132</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>283</v>
+        <v>394</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>283</v>
+        <v>395</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>283</v>
+        <v>395</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>283</v>
+        <v>395</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>283</v>
+        <v>395</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>286</v>
+        <v>395</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c r="M48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N48">
-        <v>11233</v>
-      </c>
-      <c r="O48" t="s">
-        <v>80</v>
+        <v>11385</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -9882,13 +10044,13 @@
         <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="D49" t="s">
         <v>79</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>283</v>
@@ -9911,7 +10073,7 @@
       <c r="L49" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" t="s">
         <v>39</v>
       </c>
       <c r="N49">
@@ -9941,7 +10103,7 @@
         <v>79</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>283</v>
@@ -9964,8 +10126,8 @@
       <c r="L50" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="M50" t="s">
-        <v>8</v>
+      <c r="M50" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="N50">
         <v>11233</v>
@@ -9994,7 +10156,7 @@
         <v>79</v>
       </c>
       <c r="E51" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>283</v>
@@ -10018,7 +10180,7 @@
         <v>286</v>
       </c>
       <c r="M51" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="N51">
         <v>11233</v>
@@ -10038,52 +10200,52 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="E52" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="M52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N52">
-        <v>11106</v>
+        <v>11233</v>
       </c>
       <c r="O52" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -10091,16 +10253,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="E53" t="s">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>241</v>
@@ -10118,25 +10280,25 @@
         <v>241</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="M53" t="s">
-        <v>37</v>
+        <v>231</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="N53">
-        <v>11106</v>
+        <v>11233</v>
       </c>
       <c r="O53" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -10144,37 +10306,37 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>316</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
         <v>132</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="M54" t="s">
         <v>37</v>
@@ -10197,52 +10359,52 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D55" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="E55" t="s">
         <v>132</v>
       </c>
       <c r="F55" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L55" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="M55" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N55">
-        <v>10007</v>
+        <v>11106</v>
       </c>
       <c r="O55" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -10250,52 +10412,52 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="D56" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="E56" t="s">
         <v>132</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>253</v>
+        <v>317</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="M56" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N56">
-        <v>10012</v>
+        <v>11106</v>
       </c>
       <c r="O56" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -10303,43 +10465,43 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="D57" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="E57" t="s">
         <v>132</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="M57" t="s">
         <v>8</v>
       </c>
       <c r="N57">
-        <v>10011</v>
+        <v>10007</v>
       </c>
       <c r="O57" t="s">
         <v>163</v>
@@ -10356,43 +10518,43 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
         <v>161</v>
       </c>
       <c r="D58" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E58" t="s">
         <v>132</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="M58" t="s">
         <v>8</v>
       </c>
       <c r="N58">
-        <v>10010</v>
+        <v>10012</v>
       </c>
       <c r="O58" t="s">
         <v>163</v>
@@ -10409,43 +10571,43 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="E59" t="s">
         <v>132</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="M59" t="s">
         <v>8</v>
       </c>
       <c r="N59">
-        <v>10128</v>
+        <v>10011</v>
       </c>
       <c r="O59" t="s">
         <v>163</v>
@@ -10462,19 +10624,19 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>287</v>
+        <v>161</v>
       </c>
       <c r="D60" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="E60" t="s">
         <v>132</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>238</v>
@@ -10489,16 +10651,16 @@
         <v>238</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="M60" t="s">
         <v>8</v>
       </c>
       <c r="N60">
-        <v>10075</v>
+        <v>10010</v>
       </c>
       <c r="O60" t="s">
         <v>163</v>
@@ -10515,43 +10677,43 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>281</v>
       </c>
       <c r="D61" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="E61" t="s">
         <v>132</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="M61" t="s">
         <v>8</v>
       </c>
       <c r="N61">
-        <v>10014</v>
+        <v>10128</v>
       </c>
       <c r="O61" t="s">
         <v>163</v>
@@ -10568,43 +10730,43 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="D62" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="E62" t="s">
         <v>132</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J62" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="J62" s="3" t="s">
         <v>238</v>
       </c>
+      <c r="K62" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="L62" s="3" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="M62" t="s">
         <v>8</v>
       </c>
       <c r="N62">
-        <v>10025</v>
+        <v>10075</v>
       </c>
       <c r="O62" t="s">
         <v>163</v>
@@ -10621,43 +10783,43 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>332</v>
+        <v>161</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E63" t="s">
         <v>132</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="M63" t="s">
         <v>8</v>
       </c>
       <c r="N63">
-        <v>10023</v>
+        <v>10014</v>
       </c>
       <c r="O63" t="s">
         <v>163</v>
@@ -10674,43 +10836,43 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C64" t="s">
-        <v>287</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="E64" t="s">
         <v>132</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M64" t="s">
         <v>8</v>
       </c>
       <c r="N64">
-        <v>10019</v>
+        <v>10025</v>
       </c>
       <c r="O64" t="s">
         <v>163</v>
@@ -10727,52 +10889,52 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="D65" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="E65" t="s">
         <v>132</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="M65" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="N65">
-        <v>11206</v>
+        <v>10023</v>
       </c>
       <c r="O65" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -10780,52 +10942,52 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="D66" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>37</v>
+        <v>311</v>
+      </c>
+      <c r="M66" t="s">
+        <v>8</v>
       </c>
       <c r="N66">
-        <v>11354</v>
+        <v>10019</v>
       </c>
       <c r="O66" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -10833,52 +10995,52 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>387</v>
+        <v>278</v>
       </c>
       <c r="D67" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="E67" t="s">
         <v>132</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>389</v>
+        <v>280</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>389</v>
+        <v>279</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>389</v>
+        <v>279</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>389</v>
+        <v>279</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>390</v>
+        <v>279</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>388</v>
+        <v>279</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="M67" t="s">
         <v>39</v>
       </c>
       <c r="N67">
-        <v>11215</v>
+        <v>11206</v>
       </c>
       <c r="O67" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -10886,52 +11048,52 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>387</v>
+        <v>305</v>
       </c>
       <c r="D68" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>389</v>
+        <v>293</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>389</v>
+        <v>293</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>389</v>
+        <v>306</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>389</v>
+        <v>293</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>389</v>
+        <v>293</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="M68" t="s">
-        <v>39</v>
+        <v>307</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N68">
-        <v>11217</v>
+        <v>11354</v>
       </c>
       <c r="O68" t="s">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>217</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -10939,52 +11101,52 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="D69" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>293</v>
+        <v>389</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>293</v>
+        <v>389</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>293</v>
+        <v>389</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>293</v>
+        <v>389</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>293</v>
+        <v>390</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M69" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="M69" t="s">
         <v>39</v>
       </c>
       <c r="N69">
-        <v>11226</v>
+        <v>11215</v>
       </c>
       <c r="O69" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="P69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -10992,52 +11154,52 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D70" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="M70" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="M70" t="s">
         <v>39</v>
       </c>
       <c r="N70">
-        <v>11215</v>
+        <v>11217</v>
       </c>
       <c r="O70" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -11045,31 +11207,31 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C71" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="D71" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="E71" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>405</v>
+        <v>293</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>293</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>405</v>
+        <v>293</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>293</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>405</v>
+        <v>293</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>293</v>
@@ -11077,20 +11239,20 @@
       <c r="L71" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="M71" t="s">
-        <v>37</v>
+      <c r="M71" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="N71">
-        <v>11101</v>
+        <v>11226</v>
       </c>
       <c r="O71" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -11098,52 +11260,52 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>371</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>244</v>
+        <v>372</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>244</v>
+        <v>374</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>239</v>
+        <v>375</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M72" t="s">
+        <v>348</v>
+      </c>
+      <c r="M72" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N72">
-        <v>11221</v>
+        <v>11215</v>
       </c>
       <c r="O72" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -11151,52 +11313,52 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="M73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N73">
-        <v>11217</v>
+        <v>11101</v>
       </c>
       <c r="O73" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -11204,52 +11366,52 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>419</v>
       </c>
       <c r="D74" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>416</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="M74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N74">
-        <v>11217</v>
+        <v>11101</v>
       </c>
       <c r="O74" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
-      <c r="Q74" t="s">
-        <v>56</v>
+      <c r="Q74" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -11257,52 +11419,52 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>367</v>
+        <v>105</v>
       </c>
       <c r="D75" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>406</v>
+        <v>244</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>406</v>
+        <v>245</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>406</v>
+        <v>244</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>406</v>
+        <v>245</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>363</v>
+        <v>239</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>37</v>
+        <v>231</v>
+      </c>
+      <c r="M75" t="s">
+        <v>39</v>
       </c>
       <c r="N75">
-        <v>11101</v>
+        <v>11221</v>
       </c>
       <c r="O75" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="P75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -11310,52 +11472,52 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C76" t="s">
-        <v>367</v>
+        <v>105</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>416</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>391</v>
+        <v>231</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>391</v>
+        <v>244</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>391</v>
+        <v>244</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>391</v>
+        <v>245</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>392</v>
+        <v>239</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>348</v>
+        <v>231</v>
       </c>
       <c r="M76" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N76">
-        <v>10018</v>
+        <v>11221</v>
       </c>
       <c r="O76" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="P76">
-        <v>1</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -11363,52 +11525,52 @@
         <v>76</v>
       </c>
       <c r="B77">
+        <v>51</v>
+      </c>
+      <c r="C77" t="s">
+        <v>378</v>
+      </c>
+      <c r="D77" t="s">
         <v>54</v>
       </c>
-      <c r="C77" t="s">
-        <v>250</v>
-      </c>
-      <c r="D77" t="s">
-        <v>85</v>
-      </c>
       <c r="E77" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>252</v>
+        <v>359</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>239</v>
+        <v>359</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>239</v>
+        <v>359</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>239</v>
+        <v>359</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>239</v>
+        <v>359</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>231</v>
+        <v>359</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>231</v>
+        <v>359</v>
       </c>
       <c r="M77" t="s">
         <v>39</v>
       </c>
       <c r="N77">
-        <v>11215</v>
+        <v>11217</v>
       </c>
       <c r="O77" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -11416,49 +11578,52 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>360</v>
+        <v>53</v>
       </c>
       <c r="D78" t="s">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="M78" t="s">
         <v>39</v>
       </c>
       <c r="N78">
-        <v>11215</v>
+        <v>11217</v>
       </c>
       <c r="O78" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="P78">
         <v>0</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -11466,52 +11631,52 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>367</v>
       </c>
       <c r="D79" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>231</v>
+        <v>406</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>246</v>
+        <v>406</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>246</v>
+        <v>406</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>246</v>
+        <v>406</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>231</v>
+        <v>406</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>247</v>
+        <v>348</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N79">
-        <v>11226</v>
+        <v>11101</v>
       </c>
       <c r="O79" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P79">
         <v>1</v>
       </c>
       <c r="Q79" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -11519,52 +11684,52 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="D80" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="K80" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="L80" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="L80" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>39</v>
+      <c r="M80" t="s">
+        <v>8</v>
       </c>
       <c r="N80">
-        <v>11206</v>
+        <v>10018</v>
       </c>
       <c r="O80" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="P80">
         <v>1</v>
       </c>
       <c r="Q80" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -11572,31 +11737,31 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="D81" t="s">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>231</v>
@@ -11605,19 +11770,19 @@
         <v>231</v>
       </c>
       <c r="M81" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N81">
-        <v>10001</v>
+        <v>11215</v>
       </c>
       <c r="O81" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="P81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
@@ -11625,52 +11790,49 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="E82" t="s">
         <v>132</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="M82" t="s">
         <v>39</v>
       </c>
       <c r="N82">
-        <v>11249</v>
+        <v>11215</v>
       </c>
       <c r="O82" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="P82">
         <v>0</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
@@ -11678,52 +11840,52 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>403</v>
+        <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="E83" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>404</v>
+        <v>231</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>404</v>
+        <v>246</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>404</v>
+        <v>246</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>404</v>
+        <v>246</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>404</v>
+        <v>240</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="M83" t="s">
+        <v>247</v>
+      </c>
+      <c r="M83" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N83">
-        <v>11206</v>
+        <v>11226</v>
       </c>
       <c r="O83" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -11731,49 +11893,52 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="D84" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E84" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>408</v>
+        <v>347</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>407</v>
+        <v>347</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>245</v>
+        <v>348</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="M84" t="s">
-        <v>37</v>
+        <v>350</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="N84">
-        <v>11385</v>
+        <v>11206</v>
       </c>
       <c r="O84" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
@@ -11781,49 +11946,52 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="D85" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>407</v>
+        <v>234</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>407</v>
+        <v>234</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>408</v>
+        <v>234</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>407</v>
+        <v>234</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>409</v>
+        <v>234</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>37</v>
+        <v>231</v>
+      </c>
+      <c r="M85" t="s">
+        <v>8</v>
       </c>
       <c r="N85">
-        <v>11385</v>
+        <v>10001</v>
       </c>
       <c r="O85" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
@@ -11831,49 +11999,52 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="D86" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="E86" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>408</v>
+        <v>300</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="M86" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N86">
-        <v>11385</v>
+        <v>11249</v>
       </c>
       <c r="O86" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="P86">
         <v>0</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
@@ -11881,49 +12052,52 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>75</v>
+        <v>403</v>
       </c>
       <c r="D87" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="E87" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>245</v>
+        <v>404</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="M87" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N87">
-        <v>11385</v>
+        <v>11206</v>
       </c>
       <c r="O87" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="P87">
         <v>0</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -11931,52 +12105,49 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C88" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="D88" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="E88" t="s">
         <v>132</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>352</v>
+        <v>245</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="M88" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N88">
-        <v>10014</v>
+        <v>11385</v>
       </c>
       <c r="O88" t="s">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="P88">
         <v>0</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -11984,52 +12155,49 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>385</v>
+        <v>75</v>
       </c>
       <c r="D89" t="s">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="E89" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>239</v>
+        <v>408</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>348</v>
+        <v>245</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="M89" t="s">
-        <v>8</v>
+      <c r="M89" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N89">
-        <v>10038</v>
+        <v>11385</v>
       </c>
       <c r="O89" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="P89">
         <v>0</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
@@ -12037,46 +12205,46 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C90" t="s">
-        <v>323</v>
+        <v>75</v>
       </c>
       <c r="D90" t="s">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="E90" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>230</v>
+        <v>407</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>230</v>
+        <v>407</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>230</v>
+        <v>408</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>230</v>
+        <v>407</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>230</v>
+        <v>409</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>230</v>
+        <v>348</v>
       </c>
       <c r="M90" t="s">
         <v>37</v>
       </c>
       <c r="N90">
-        <v>11103</v>
+        <v>11385</v>
       </c>
       <c r="O90" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -12087,46 +12255,46 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C91" t="s">
-        <v>338</v>
+        <v>75</v>
       </c>
       <c r="D91" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="E91" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>272</v>
+        <v>407</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>272</v>
+        <v>407</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>272</v>
+        <v>408</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>272</v>
+        <v>407</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>272</v>
+        <v>409</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="M91" t="s">
         <v>37</v>
       </c>
       <c r="N91">
-        <v>11103</v>
+        <v>11385</v>
       </c>
       <c r="O91" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -12137,49 +12305,52 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C92" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D92" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="E92" t="s">
         <v>132</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M92" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="N92">
-        <v>11104</v>
+        <v>10014</v>
       </c>
       <c r="O92" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="P92">
         <v>0</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
@@ -12187,49 +12358,52 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C93" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="D93" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="E93" t="s">
         <v>132</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>369</v>
+        <v>386</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="M93" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="N93">
-        <v>11104</v>
+        <v>10038</v>
       </c>
       <c r="O93" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="P93">
         <v>0</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
@@ -12237,46 +12411,46 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C94" t="s">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="D94" t="s">
-        <v>134</v>
+        <v>327</v>
       </c>
       <c r="E94" t="s">
         <v>132</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>366</v>
+        <v>230</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>366</v>
+        <v>230</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>366</v>
+        <v>230</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>366</v>
+        <v>230</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>366</v>
+        <v>230</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>366</v>
+        <v>230</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>366</v>
+        <v>230</v>
       </c>
       <c r="M94" t="s">
         <v>37</v>
       </c>
       <c r="N94">
-        <v>11104</v>
+        <v>11103</v>
       </c>
       <c r="O94" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -12287,52 +12461,49 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C95" t="s">
-        <v>68</v>
+        <v>338</v>
       </c>
       <c r="D95" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="E95" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="L95" s="4" t="s">
-        <v>231</v>
+        <v>272</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="M95" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N95">
-        <v>10002</v>
+        <v>11103</v>
       </c>
       <c r="O95" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="P95">
-        <v>1</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
@@ -12340,52 +12511,49 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C96" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="D96" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>39</v>
+        <v>381</v>
+      </c>
+      <c r="M96" t="s">
+        <v>37</v>
       </c>
       <c r="N96">
-        <v>11208</v>
+        <v>11104</v>
       </c>
       <c r="O96" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="P96">
         <v>0</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
@@ -12393,52 +12561,49 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>368</v>
       </c>
       <c r="D97" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E97" t="s">
         <v>132</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>236</v>
+        <v>369</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>236</v>
+        <v>369</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>236</v>
+        <v>369</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>236</v>
+        <v>369</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>236</v>
+        <v>369</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="L97" s="4" t="s">
-        <v>231</v>
+        <v>366</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="M97" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N97">
-        <v>10003</v>
+        <v>11104</v>
       </c>
       <c r="O97" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="P97">
-        <v>1</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
@@ -12446,52 +12611,49 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="D98" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>236</v>
+        <v>366</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>236</v>
+        <v>366</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>236</v>
+        <v>366</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>236</v>
+        <v>366</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>236</v>
+        <v>366</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="L98" s="4" t="s">
-        <v>231</v>
+        <v>366</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="M98" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N98">
-        <v>10003</v>
+        <v>11104</v>
       </c>
       <c r="O98" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="P98">
-        <v>1</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
@@ -12499,52 +12661,52 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="D99" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="L99" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="L99" s="4" t="s">
         <v>231</v>
       </c>
       <c r="M99" t="s">
         <v>8</v>
       </c>
       <c r="N99">
-        <v>10011</v>
+        <v>10002</v>
       </c>
       <c r="O99" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="P99">
         <v>1</v>
       </c>
       <c r="Q99" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
@@ -12552,52 +12714,52 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C100" t="s">
-        <v>249</v>
+        <v>341</v>
       </c>
       <c r="D100" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>236</v>
+        <v>342</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>236</v>
+        <v>342</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>236</v>
+        <v>342</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>236</v>
+        <v>342</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>236</v>
+        <v>342</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>236</v>
+        <v>343</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M100" t="s">
-        <v>8</v>
+        <v>344</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="N100">
-        <v>10011</v>
+        <v>11208</v>
       </c>
       <c r="O100" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="P100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
@@ -12605,43 +12767,43 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C101" t="s">
-        <v>262</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>261</v>
+        <v>117</v>
       </c>
       <c r="E101" t="s">
         <v>132</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>263</v>
+        <v>236</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="M101" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="N101">
-        <v>11435</v>
+        <v>10003</v>
       </c>
       <c r="O101" t="s">
         <v>17</v>
@@ -12658,43 +12820,43 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C102" t="s">
         <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>37</v>
+        <v>236</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="M102" t="s">
+        <v>8</v>
       </c>
       <c r="N102">
-        <v>11435</v>
+        <v>10003</v>
       </c>
       <c r="O102" t="s">
         <v>17</v>
@@ -12711,43 +12873,43 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C103" t="s">
-        <v>291</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="M103" t="s">
         <v>8</v>
       </c>
       <c r="N103">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="O103" t="s">
         <v>17</v>
@@ -12764,43 +12926,43 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="D104" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="M104" t="s">
         <v>8</v>
       </c>
       <c r="N104">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="O104" t="s">
         <v>17</v>
@@ -12817,43 +12979,43 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="M105" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N105">
-        <v>10011</v>
+        <v>11435</v>
       </c>
       <c r="O105" t="s">
         <v>17</v>
@@ -12870,43 +13032,43 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C106" t="s">
         <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E106" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M106" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N106">
-        <v>10011</v>
+        <v>11435</v>
       </c>
       <c r="O106" t="s">
         <v>17</v>
@@ -12923,43 +13085,43 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C107" t="s">
         <v>291</v>
       </c>
       <c r="D107" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E107" t="s">
         <v>132</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>289</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>293</v>
       </c>
       <c r="M107" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="N107">
-        <v>11238</v>
+        <v>10010</v>
       </c>
       <c r="O107" t="s">
         <v>17</v>
@@ -12976,43 +13138,43 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>289</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L108" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="M108" s="1" t="s">
-        <v>39</v>
+      <c r="M108" t="s">
+        <v>8</v>
       </c>
       <c r="N108">
-        <v>11238</v>
+        <v>10010</v>
       </c>
       <c r="O108" t="s">
         <v>17</v>
@@ -13029,43 +13191,43 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C109" t="s">
-        <v>324</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>325</v>
+        <v>16</v>
       </c>
       <c r="E109" t="s">
         <v>10</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="M109" t="s">
         <v>8</v>
       </c>
       <c r="N109">
-        <v>10035</v>
+        <v>10011</v>
       </c>
       <c r="O109" t="s">
         <v>17</v>
@@ -13082,43 +13244,43 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C110" t="s">
-        <v>324</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="E110" t="s">
         <v>132</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="M110" t="s">
         <v>8</v>
       </c>
       <c r="N110">
-        <v>10025</v>
+        <v>10011</v>
       </c>
       <c r="O110" t="s">
         <v>17</v>
@@ -13135,43 +13297,43 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="D111" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="M111" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N111">
-        <v>10025</v>
+        <v>11238</v>
       </c>
       <c r="O111" t="s">
         <v>17</v>
@@ -13188,31 +13350,31 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C112" t="s">
-        <v>291</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="E112" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>289</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="K112" s="3" t="s">
         <v>289</v>
@@ -13220,11 +13382,11 @@
       <c r="L112" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="M112" t="s">
-        <v>37</v>
+      <c r="M112" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="N112">
-        <v>11101</v>
+        <v>11238</v>
       </c>
       <c r="O112" t="s">
         <v>17</v>
@@ -13241,43 +13403,43 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c r="D113" t="s">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="E113" t="s">
         <v>10</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>309</v>
+        <v>236</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>309</v>
+        <v>236</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>309</v>
+        <v>236</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>309</v>
+        <v>236</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>37</v>
+        <v>236</v>
+      </c>
+      <c r="M113" t="s">
+        <v>8</v>
       </c>
       <c r="N113">
-        <v>11101</v>
+        <v>10035</v>
       </c>
       <c r="O113" t="s">
         <v>17</v>
@@ -13294,43 +13456,43 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C114" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="D114" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="E114" t="s">
         <v>132</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="K114" s="4" t="s">
-        <v>353</v>
+        <v>328</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="M114" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="N114">
-        <v>11377</v>
+        <v>10025</v>
       </c>
       <c r="O114" t="s">
         <v>17</v>
@@ -13347,45 +13509,45 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C115" t="s">
-        <v>351</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E115" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="M115" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="N115">
-        <v>11217</v>
-      </c>
-      <c r="O115" s="2" t="s">
+        <v>10025</v>
+      </c>
+      <c r="O115" t="s">
         <v>17</v>
       </c>
       <c r="P115">
@@ -13400,43 +13562,43 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="D116" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>39</v>
+        <v>293</v>
+      </c>
+      <c r="M116" t="s">
+        <v>37</v>
       </c>
       <c r="N116">
-        <v>11217</v>
+        <v>11101</v>
       </c>
       <c r="O116" t="s">
         <v>17</v>
@@ -13453,43 +13615,43 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C117" t="s">
-        <v>351</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="M117" t="s">
-        <v>8</v>
+        <v>293</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N117">
-        <v>10036</v>
+        <v>11101</v>
       </c>
       <c r="O117" t="s">
         <v>17</v>
@@ -13506,13 +13668,13 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>351</v>
       </c>
       <c r="D118" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E118" t="s">
         <v>132</v>
@@ -13524,25 +13686,25 @@
         <v>352</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="L118" s="3" t="s">
         <v>348</v>
       </c>
       <c r="M118" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N118">
-        <v>10036</v>
+        <v>11377</v>
       </c>
       <c r="O118" t="s">
         <v>17</v>
@@ -13559,16 +13721,16 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C119" t="s">
         <v>351</v>
       </c>
       <c r="D119" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>359</v>
@@ -13591,13 +13753,13 @@
       <c r="L119" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="M119" s="1" t="s">
+      <c r="M119" t="s">
         <v>39</v>
       </c>
       <c r="N119">
-        <v>11220</v>
-      </c>
-      <c r="O119" t="s">
+        <v>11217</v>
+      </c>
+      <c r="O119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="P119">
@@ -13612,49 +13774,52 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C120" t="s">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="E120" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="J120" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="K120" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="L120" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="M120" t="s">
-        <v>8</v>
+        <v>359</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="N120">
-        <v>10128</v>
+        <v>11217</v>
       </c>
       <c r="O120" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="P120">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
@@ -13662,49 +13827,52 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C121" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D121" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="M121" t="s">
         <v>8</v>
       </c>
       <c r="N121">
-        <v>10024</v>
+        <v>10036</v>
       </c>
       <c r="O121" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="P121">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
@@ -13712,52 +13880,52 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C122" t="s">
-        <v>401</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="K122" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="L122" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="L122" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="M122" t="s">
         <v>8</v>
       </c>
       <c r="N122">
-        <v>10016</v>
+        <v>10036</v>
       </c>
       <c r="O122" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q122" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
@@ -13765,52 +13933,52 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>351</v>
       </c>
       <c r="D123" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E123" t="s">
         <v>10</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="K123" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="L123" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="M123" t="s">
-        <v>8</v>
+        <v>359</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="N123">
-        <v>10016</v>
+        <v>11220</v>
       </c>
       <c r="O123" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q123" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
@@ -13818,46 +13986,46 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>273</v>
       </c>
       <c r="D124" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="L124" s="3" t="s">
-        <v>239</v>
+        <v>275</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="M124" t="s">
         <v>8</v>
       </c>
       <c r="N124">
-        <v>10003</v>
+        <v>10128</v>
       </c>
       <c r="O124" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -13868,46 +14036,46 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>354</v>
       </c>
       <c r="D125" t="s">
-        <v>326</v>
+        <v>208</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>239</v>
+        <v>369</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>239</v>
+        <v>369</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>239</v>
+        <v>369</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>239</v>
+        <v>369</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>239</v>
+        <v>369</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>239</v>
+        <v>369</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>39</v>
+        <v>382</v>
+      </c>
+      <c r="M125" t="s">
+        <v>8</v>
       </c>
       <c r="N125">
-        <v>11207</v>
+        <v>10024</v>
       </c>
       <c r="O125" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -13918,49 +14086,52 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>401</v>
       </c>
       <c r="D126" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E126" t="s">
         <v>10</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>239</v>
+        <v>342</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>239</v>
+        <v>386</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>239</v>
+        <v>386</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>239</v>
+        <v>386</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>239</v>
+        <v>386</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>239</v>
+        <v>348</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>239</v>
+        <v>392</v>
       </c>
       <c r="M126" t="s">
         <v>8</v>
       </c>
       <c r="N126">
-        <v>10009</v>
+        <v>10016</v>
       </c>
       <c r="O126" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="P126">
         <v>0</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
@@ -13968,52 +14139,52 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C127" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="E127" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>232</v>
+        <v>342</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>233</v>
+        <v>342</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>232</v>
+        <v>342</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>232</v>
+        <v>342</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="L127" s="3" t="s">
-        <v>231</v>
+        <v>342</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="M127" t="s">
         <v>8</v>
       </c>
       <c r="N127">
-        <v>10001</v>
+        <v>10016</v>
       </c>
       <c r="O127" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="P127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q127" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
@@ -14021,52 +14192,49 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C128" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E128" t="s">
         <v>10</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="K128" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="L128" s="4" t="s">
-        <v>231</v>
+        <v>239</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="M128" t="s">
         <v>8</v>
       </c>
       <c r="N128">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="O128" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="P128">
-        <v>1</v>
-      </c>
-      <c r="Q128" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
@@ -14074,59 +14242,525 @@
         <v>128</v>
       </c>
       <c r="B129">
+        <v>87</v>
+      </c>
+      <c r="C129" t="s">
+        <v>30</v>
+      </c>
+      <c r="D129" t="s">
+        <v>31</v>
+      </c>
+      <c r="E129" t="s">
+        <v>423</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="M129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N129">
+        <v>10003</v>
+      </c>
+      <c r="O129" t="s">
+        <v>32</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>88</v>
+      </c>
+      <c r="C130" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" t="s">
+        <v>326</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N130">
+        <v>11207</v>
+      </c>
+      <c r="O130" t="s">
+        <v>32</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>88</v>
+      </c>
+      <c r="C131" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" t="s">
+        <v>426</v>
+      </c>
+      <c r="E131" t="s">
+        <v>416</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="M131" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N131">
+        <v>11207</v>
+      </c>
+      <c r="O131" t="s">
+        <v>32</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>89</v>
+      </c>
+      <c r="C132" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132" t="s">
+        <v>34</v>
+      </c>
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="M132" t="s">
+        <v>8</v>
+      </c>
+      <c r="N132">
+        <v>10009</v>
+      </c>
+      <c r="O132" t="s">
+        <v>32</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>89</v>
+      </c>
+      <c r="C133" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" t="s">
+        <v>34</v>
+      </c>
+      <c r="E133" t="s">
+        <v>416</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="M133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N133">
+        <v>10009</v>
+      </c>
+      <c r="O133" t="s">
+        <v>32</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
         <v>90</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C134" t="s">
         <v>66</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D134" t="s">
         <v>12</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E134" t="s">
+        <v>132</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M134" t="s">
+        <v>8</v>
+      </c>
+      <c r="N134">
+        <v>10001</v>
+      </c>
+      <c r="O134" t="s">
+        <v>13</v>
+      </c>
+      <c r="P134">
+        <v>1</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>90</v>
+      </c>
+      <c r="C135" t="s">
+        <v>66</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="M135" t="s">
+        <v>8</v>
+      </c>
+      <c r="N135">
+        <v>10001</v>
+      </c>
+      <c r="O135" t="s">
+        <v>13</v>
+      </c>
+      <c r="P135">
+        <v>1</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>90</v>
+      </c>
+      <c r="C136" t="s">
+        <v>66</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
         <v>67</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="F136" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="G136" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="H136" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I129" s="3" t="s">
+      <c r="I136" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="J129" s="4" t="s">
+      <c r="J136" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="K129" s="4" t="s">
+      <c r="K136" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="L129" s="4" t="s">
+      <c r="L136" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M136" t="s">
         <v>8</v>
       </c>
-      <c r="N129">
+      <c r="N136">
         <v>10001</v>
       </c>
-      <c r="O129" t="s">
+      <c r="O136" t="s">
         <v>13</v>
       </c>
-      <c r="P129">
+      <c r="P136">
         <v>1</v>
       </c>
-      <c r="Q129" t="s">
+      <c r="Q136" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>91</v>
+      </c>
+      <c r="C137" t="s">
+        <v>414</v>
+      </c>
+      <c r="D137" t="s">
+        <v>415</v>
+      </c>
+      <c r="E137" t="s">
+        <v>416</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M137" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N137">
+        <v>11377</v>
+      </c>
+      <c r="O137" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>92</v>
+      </c>
+      <c r="C138" t="s">
+        <v>421</v>
+      </c>
+      <c r="D138" t="s">
+        <v>422</v>
+      </c>
+      <c r="E138" t="s">
+        <v>416</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M138" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N138">
+        <v>11207</v>
+      </c>
+      <c r="O138" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:Q129">
-    <sortCondition ref="C1"/>
+  <sortState ref="A2:Q138">
+    <sortCondition ref="B113"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="Q137" r:id="rId1"/>
+    <hyperlink ref="Q74" r:id="rId2"/>
+    <hyperlink ref="Q76" r:id="rId3"/>
+    <hyperlink ref="Q6" r:id="rId4"/>
+    <hyperlink ref="Q53" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>

--- a/static/data/DonateNYC.xlsx
+++ b/static/data/DonateNYC.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="336">
   <si>
     <t>name</t>
   </si>
@@ -1096,7 +1096,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3037">
+  <cellStyleXfs count="3057">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3889,6 +3889,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4145,7 +4165,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3037">
+  <cellStyles count="3057">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5786,6 +5806,26 @@
     <cellStyle name="Followed Hyperlink" xfId="3034" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3035" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3037" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3039" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3041" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3043" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3045" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3047" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3049" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3051" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3053" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3055" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3056" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7457,10 +7497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q204"/>
+  <dimension ref="A1:Q207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7702,7 +7742,7 @@
         <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>284</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>248</v>
@@ -7755,7 +7795,7 @@
         <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>248</v>
@@ -7778,19 +7818,19 @@
       <c r="L6" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="N6" s="1">
         <v>11102</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="1" t="s">
         <v>63</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7799,16 +7839,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>248</v>
@@ -7831,19 +7871,19 @@
       <c r="L7" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>38</v>
+      <c r="M7" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="N7" s="1">
-        <v>11215</v>
-      </c>
-      <c r="O7" s="1" t="s">
+        <v>11102</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>63</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7861,7 +7901,7 @@
         <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>248</v>
@@ -7905,52 +7945,52 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N9" s="1">
-        <v>10002</v>
+        <v>11215</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>206</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -7958,51 +7998,53 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="N10" s="1">
-        <v>11103</v>
+        <v>10002</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -8018,7 +8060,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>251</v>
@@ -8060,53 +8102,51 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N12" s="1">
-        <v>11238</v>
+        <v>11103</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -8122,7 +8162,7 @@
         <v>92</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>238</v>
@@ -8166,52 +8206,52 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>294</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N14" s="1">
-        <v>10028</v>
+        <v>11238</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="P14" s="1">
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -8219,52 +8259,52 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>197</v>
+        <v>294</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="1">
-        <v>10003</v>
+        <v>10028</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="P15" s="1">
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -8272,52 +8312,52 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="N16" s="1">
-        <v>11213</v>
+        <v>10003</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="P16" s="1">
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -8334,7 +8374,7 @@
         <v>96</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>258</v>
@@ -8378,52 +8418,52 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N18" s="1">
-        <v>10010</v>
+        <v>11213</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -8440,7 +8480,7 @@
         <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>240</v>
@@ -8484,52 +8524,52 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="N20" s="1">
-        <v>11230</v>
+        <v>10010</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -8543,10 +8583,10 @@
         <v>87</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>242</v>
@@ -8599,7 +8639,7 @@
         <v>88</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>242</v>
@@ -8652,7 +8692,7 @@
         <v>88</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>242</v>
@@ -8696,52 +8736,52 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>297</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N24" s="1">
-        <v>10028</v>
+        <v>11230</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="P24" s="1">
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -8749,64 +8789,66 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="N25" s="1">
-        <v>11105</v>
+        <v>10028</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="P25" s="1">
         <v>0</v>
       </c>
-      <c r="Q25" s="1"/>
+      <c r="Q25" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>131</v>
@@ -8830,16 +8872,16 @@
         <v>229</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N26" s="1">
-        <v>10003</v>
+        <v>11105</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="P26" s="1">
         <v>0</v>
@@ -8851,49 +8893,49 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>300</v>
+        <v>194</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="N27" s="1">
-        <v>11231</v>
+        <v>10003</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="P27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="1"/>
     </row>
@@ -8902,16 +8944,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>276</v>
+        <v>59</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>238</v>
@@ -8935,20 +8977,18 @@
         <v>230</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N28" s="1">
-        <v>10018</v>
+        <v>11231</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="P28" s="1">
         <v>1</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -8964,7 +9004,7 @@
         <v>176</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>238</v>
@@ -9017,7 +9057,7 @@
         <v>176</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>238</v>
@@ -9070,7 +9110,7 @@
         <v>176</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>131</v>
+        <v>281</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>238</v>
@@ -9114,52 +9154,52 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>19</v>
+        <v>301</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N32" s="1">
-        <v>10001</v>
+        <v>10018</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="P32" s="1">
         <v>1</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -9173,10 +9213,10 @@
         <v>19</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>228</v>
@@ -9220,13 +9260,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>131</v>
@@ -9256,7 +9296,7 @@
         <v>8</v>
       </c>
       <c r="N34" s="1">
-        <v>10023</v>
+        <v>10001</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>21</v>
@@ -9282,7 +9322,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>228</v>
@@ -9326,16 +9366,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>228</v>
@@ -9362,7 +9402,7 @@
         <v>8</v>
       </c>
       <c r="N36" s="1">
-        <v>10128</v>
+        <v>10023</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>21</v>
@@ -9441,7 +9481,7 @@
         <v>39</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>228</v>
@@ -9494,7 +9534,7 @@
         <v>39</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>228</v>
@@ -9547,7 +9587,7 @@
         <v>39</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>228</v>
@@ -9600,7 +9640,7 @@
         <v>39</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>283</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>228</v>
@@ -9653,7 +9693,7 @@
         <v>39</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>228</v>
@@ -9706,7 +9746,7 @@
         <v>39</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>228</v>
@@ -9759,7 +9799,7 @@
         <v>39</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>228</v>
@@ -9812,7 +9852,7 @@
         <v>39</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>10</v>
+        <v>282</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>228</v>
@@ -9856,16 +9896,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>228</v>
@@ -9886,13 +9926,13 @@
         <v>228</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N46" s="1">
-        <v>10024</v>
+        <v>10128</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>21</v>
@@ -9918,7 +9958,7 @@
         <v>34</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>228</v>
@@ -9962,16 +10002,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>228</v>
@@ -9992,13 +10032,13 @@
         <v>228</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N48" s="1">
-        <v>10010</v>
+        <v>10024</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>21</v>
@@ -10024,7 +10064,7 @@
         <v>120</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>228</v>
@@ -10068,13 +10108,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>10</v>
@@ -10104,7 +10144,7 @@
         <v>8</v>
       </c>
       <c r="N50" s="1">
-        <v>10035</v>
+        <v>10010</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>21</v>
@@ -10121,16 +10161,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>228</v>
@@ -10154,10 +10194,10 @@
         <v>229</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="N51" s="1">
-        <v>11201</v>
+        <v>10035</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>21</v>
@@ -10183,7 +10223,7 @@
         <v>45</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>228</v>
@@ -10227,16 +10267,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>228</v>
@@ -10260,10 +10300,10 @@
         <v>229</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N53" s="1">
-        <v>10011</v>
+        <v>11201</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>21</v>
@@ -10289,7 +10329,7 @@
         <v>117</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>228</v>
@@ -10333,43 +10373,43 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="N55" s="1">
-        <v>11101</v>
+        <v>10011</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>21</v>
@@ -10395,7 +10435,7 @@
         <v>41</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>303</v>
@@ -10439,43 +10479,43 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N57" s="1">
-        <v>10011</v>
+        <v>11101</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>21</v>
@@ -10498,10 +10538,10 @@
         <v>19</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>228</v>
@@ -10545,104 +10585,104 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="N59" s="1">
-        <v>11385</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>143</v>
+        <v>10011</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="P59" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N60" s="1">
-        <v>11233</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>79</v>
+        <v>11385</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="P60" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
@@ -10658,7 +10698,7 @@
         <v>78</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>248</v>
@@ -10711,7 +10751,7 @@
         <v>78</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>248</v>
@@ -10735,7 +10775,7 @@
         <v>230</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N62" s="1">
         <v>11233</v>
@@ -10764,22 +10804,22 @@
         <v>78</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>230</v>
@@ -10787,8 +10827,8 @@
       <c r="L63" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="M63" s="3" t="s">
-        <v>38</v>
+      <c r="M63" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="N63" s="1">
         <v>11233</v>
@@ -10799,7 +10839,7 @@
       <c r="P63" s="1">
         <v>1</v>
       </c>
-      <c r="Q63" s="4" t="s">
+      <c r="Q63" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -10817,22 +10857,22 @@
         <v>78</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>66</v>
+        <v>264</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>230</v>
@@ -10840,7 +10880,7 @@
       <c r="L64" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N64" s="1">
@@ -10852,7 +10892,7 @@
       <c r="P64" s="1">
         <v>1</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="Q64" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -10861,52 +10901,52 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N65" s="1">
-        <v>11106</v>
+        <v>11233</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="P65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -10914,13 +10954,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>131</v>
@@ -10967,13 +11007,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>131</v>
@@ -11020,52 +11060,52 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F68" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L68" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="M68" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N68" s="1">
-        <v>10007</v>
+        <v>11106</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -11073,43 +11113,43 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N69" s="1">
-        <v>10012</v>
+        <v>10007</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>162</v>
@@ -11126,43 +11166,43 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N70" s="1">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>162</v>
@@ -11179,43 +11219,43 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N71" s="1">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="O71" s="1" t="s">
         <v>162</v>
@@ -11232,13 +11272,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>131</v>
@@ -11259,16 +11299,16 @@
         <v>237</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N72" s="1">
-        <v>10128</v>
+        <v>10010</v>
       </c>
       <c r="O72" s="1" t="s">
         <v>162</v>
@@ -11285,13 +11325,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>131</v>
@@ -11312,16 +11352,16 @@
         <v>237</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N73" s="1">
-        <v>10075</v>
+        <v>10128</v>
       </c>
       <c r="O73" s="1" t="s">
         <v>162</v>
@@ -11338,13 +11378,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>131</v>
@@ -11365,16 +11405,16 @@
         <v>237</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N74" s="1">
-        <v>10014</v>
+        <v>10075</v>
       </c>
       <c r="O74" s="1" t="s">
         <v>162</v>
@@ -11391,13 +11431,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>131</v>
@@ -11406,13 +11446,13 @@
         <v>237</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>237</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>298</v>
+        <v>237</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>237</v>
@@ -11421,13 +11461,13 @@
         <v>237</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N75" s="1">
-        <v>10025</v>
+        <v>10014</v>
       </c>
       <c r="O75" s="1" t="s">
         <v>162</v>
@@ -11444,43 +11484,43 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N76" s="1">
-        <v>10023</v>
+        <v>10025</v>
       </c>
       <c r="O76" s="1" t="s">
         <v>162</v>
@@ -11497,43 +11537,43 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N77" s="1">
-        <v>10019</v>
+        <v>10023</v>
       </c>
       <c r="O77" s="1" t="s">
         <v>162</v>
@@ -11559,7 +11599,7 @@
         <v>183</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>277</v>
+        <v>131</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>298</v>
@@ -11612,7 +11652,7 @@
         <v>183</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>298</v>
@@ -11665,7 +11705,7 @@
         <v>183</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>298</v>
@@ -11718,7 +11758,7 @@
         <v>183</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>298</v>
@@ -11771,7 +11811,7 @@
         <v>183</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>131</v>
+        <v>285</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>298</v>
@@ -11815,52 +11855,52 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>307</v>
+        <v>160</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>131</v>
+        <v>281</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="N83" s="1">
-        <v>11206</v>
+        <v>10019</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -11868,52 +11908,52 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N84" s="1">
-        <v>11354</v>
+        <v>11206</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="P84" s="1">
         <v>0</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
@@ -11921,52 +11961,52 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c r="K85" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="L85" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="L85" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="M85" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N85" s="1">
-        <v>11215</v>
+        <v>11354</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="P85" s="1">
         <v>0</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>216</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
@@ -11974,13 +12014,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>311</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>131</v>
@@ -11998,7 +12038,7 @@
         <v>252</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>230</v>
@@ -12010,7 +12050,7 @@
         <v>38</v>
       </c>
       <c r="N86" s="1">
-        <v>11217</v>
+        <v>11215</v>
       </c>
       <c r="O86" s="1" t="s">
         <v>215</v>
@@ -12027,52 +12067,52 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>230</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>38</v>
       </c>
       <c r="N87" s="1">
-        <v>11226</v>
+        <v>11217</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="P87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -12080,13 +12120,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>10</v>
@@ -12095,19 +12135,19 @@
         <v>230</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>230</v>
@@ -12116,16 +12156,16 @@
         <v>38</v>
       </c>
       <c r="N88" s="1">
-        <v>11215</v>
+        <v>11226</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="P88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -12133,52 +12173,52 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>264</v>
+        <v>10</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>230</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N89" s="1">
-        <v>11101</v>
+        <v>11215</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="P89" s="1">
         <v>0</v>
       </c>
-      <c r="Q89" s="4" t="s">
-        <v>73</v>
+      <c r="Q89" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
@@ -12195,7 +12235,7 @@
         <v>71</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>66</v>
+        <v>264</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>253</v>
@@ -12230,7 +12270,7 @@
       <c r="P90" s="1">
         <v>0</v>
       </c>
-      <c r="Q90" s="1" t="s">
+      <c r="Q90" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -12239,52 +12279,52 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>104</v>
+        <v>267</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>230</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N91" s="1">
-        <v>11221</v>
+        <v>11101</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="P91" s="1">
         <v>0</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
@@ -12301,16 +12341,16 @@
         <v>105</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>264</v>
+        <v>10</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="G92" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>243</v>
@@ -12336,7 +12376,7 @@
       <c r="P92" s="1">
         <v>0</v>
       </c>
-      <c r="Q92" s="4" t="s">
+      <c r="Q92" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -12345,52 +12385,52 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>38</v>
       </c>
       <c r="N93" s="1">
-        <v>11217</v>
+        <v>11221</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="P93" s="1">
         <v>0</v>
       </c>
-      <c r="Q93" s="1" t="s">
-        <v>55</v>
+      <c r="Q93" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
@@ -12407,7 +12447,7 @@
         <v>53</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>240</v>
@@ -12451,52 +12491,52 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
+        <v>51</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="D95" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N95" s="1">
-        <v>11101</v>
+        <v>11217</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="P95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
@@ -12504,31 +12544,31 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>315</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>230</v>
@@ -12537,13 +12577,13 @@
         <v>230</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N96" s="1">
-        <v>10018</v>
+        <v>11101</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="P96" s="1">
         <v>1</v>
@@ -12557,31 +12597,31 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>230</v>
@@ -12590,19 +12630,19 @@
         <v>230</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="N97" s="1">
-        <v>11215</v>
+        <v>10018</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="P97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
@@ -12610,31 +12650,31 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>319</v>
+        <v>238</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>230</v>
@@ -12649,108 +12689,108 @@
         <v>11215</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>218</v>
+        <v>85</v>
       </c>
       <c r="P98" s="1">
         <v>0</v>
       </c>
-      <c r="Q98" s="1"/>
+      <c r="Q98" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>48</v>
+        <v>318</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>230</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>38</v>
       </c>
       <c r="N99" s="1">
-        <v>11226</v>
+        <v>11215</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>50</v>
+        <v>218</v>
       </c>
       <c r="P99" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q99" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q99" s="1"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>320</v>
+        <v>245</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>321</v>
+        <v>239</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>230</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>38</v>
       </c>
       <c r="N100" s="1">
-        <v>11206</v>
+        <v>11226</v>
       </c>
       <c r="O100" s="1" t="s">
         <v>50</v>
@@ -12767,52 +12807,52 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>276</v>
+        <v>10</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>230</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N101" s="1">
-        <v>10001</v>
+        <v>11206</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="P101" s="1">
         <v>1</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>182</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
@@ -12829,7 +12869,7 @@
         <v>180</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>233</v>
@@ -12882,7 +12922,7 @@
         <v>180</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>233</v>
@@ -12935,7 +12975,7 @@
         <v>180</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>131</v>
+        <v>281</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>233</v>
@@ -12979,52 +13019,52 @@
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>322</v>
+        <v>179</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="N105" s="1">
-        <v>11249</v>
+        <v>10001</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="P105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -13032,43 +13072,43 @@
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>38</v>
       </c>
       <c r="N106" s="1">
-        <v>11206</v>
+        <v>11249</v>
       </c>
       <c r="O106" s="1" t="s">
         <v>156</v>
@@ -13077,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -13085,51 +13125,53 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>275</v>
+        <v>131</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N107" s="1">
-        <v>11385</v>
+        <v>11206</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="P107" s="1">
         <v>0</v>
       </c>
-      <c r="Q107" s="1"/>
+      <c r="Q107" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -13145,7 +13187,7 @@
         <v>75</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>131</v>
+        <v>275</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>255</v>
@@ -13196,7 +13238,7 @@
         <v>75</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>255</v>
@@ -13247,7 +13289,7 @@
         <v>75</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>255</v>
@@ -13298,7 +13340,7 @@
         <v>75</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>10</v>
+        <v>277</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>255</v>
@@ -13349,7 +13391,7 @@
         <v>75</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>255</v>
@@ -13400,7 +13442,7 @@
         <v>75</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>280</v>
+        <v>59</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>255</v>
@@ -13451,7 +13493,7 @@
         <v>75</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>255</v>
@@ -13502,7 +13544,7 @@
         <v>75</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>66</v>
+        <v>285</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>255</v>
@@ -13553,7 +13595,7 @@
         <v>75</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>281</v>
+        <v>66</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>255</v>
@@ -13604,7 +13646,7 @@
         <v>75</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>255</v>
@@ -13646,87 +13688,85 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L118" s="3" t="s">
         <v>230</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N118" s="1">
-        <v>10014</v>
+        <v>11385</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="P118" s="1">
         <v>0</v>
       </c>
-      <c r="Q118" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="Q118" s="1"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="L119" s="3" t="s">
         <v>230</v>
@@ -13735,16 +13775,16 @@
         <v>8</v>
       </c>
       <c r="N119" s="1">
-        <v>10038</v>
+        <v>10014</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="P119" s="1">
         <v>0</v>
       </c>
       <c r="Q119" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
@@ -13752,64 +13792,66 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>327</v>
+        <v>210</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="N120" s="1">
-        <v>11103</v>
+        <v>10038</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="P120" s="1">
         <v>0</v>
       </c>
-      <c r="Q120" s="1"/>
+      <c r="Q120" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>326</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>131</v>
@@ -13833,7 +13875,7 @@
         <v>229</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M121" s="1" t="s">
         <v>36</v>
@@ -13842,7 +13884,7 @@
         <v>11103</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P121" s="1">
         <v>0</v>
@@ -13854,46 +13896,46 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="K122" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L122" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="L122" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="M122" s="1" t="s">
         <v>36</v>
       </c>
       <c r="N122" s="1">
-        <v>11104</v>
+        <v>11103</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P122" s="1">
         <v>0</v>
@@ -13905,37 +13947,37 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>132</v>
+        <v>328</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>36</v>
@@ -13944,7 +13986,7 @@
         <v>11104</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P123" s="1">
         <v>0</v>
@@ -13956,31 +13998,31 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>229</v>
@@ -13995,7 +14037,7 @@
         <v>11104</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P124" s="1">
         <v>0</v>
@@ -14007,105 +14049,103 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N125" s="1">
-        <v>10002</v>
+        <v>11104</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="P125" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q125" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q125" s="1"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="1">
+        <v>69</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N126" s="1">
+        <v>10002</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P126" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="L126" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N126" s="1">
-        <v>11208</v>
-      </c>
-      <c r="O126" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="P126" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q126" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
@@ -14113,52 +14153,52 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>15</v>
+        <v>329</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>235</v>
+        <v>330</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>230</v>
+        <v>331</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N127" s="1">
-        <v>10003</v>
+        <v>11208</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="P127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
@@ -14175,7 +14215,7 @@
         <v>116</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>235</v>
@@ -14219,13 +14259,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>10</v>
@@ -14255,7 +14295,7 @@
         <v>8</v>
       </c>
       <c r="N129" s="1">
-        <v>10011</v>
+        <v>10003</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>17</v>
@@ -14278,10 +14318,10 @@
         <v>15</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>235</v>
@@ -14325,43 +14365,43 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L131" s="3" t="s">
         <v>230</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="N131" s="1">
-        <v>11435</v>
+        <v>10011</v>
       </c>
       <c r="O131" s="1" t="s">
         <v>17</v>
@@ -14387,7 +14427,7 @@
         <v>111</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>240</v>
@@ -14431,43 +14471,43 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>240</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L133" s="3" t="s">
         <v>230</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N133" s="1">
-        <v>10010</v>
+        <v>11435</v>
       </c>
       <c r="O133" s="1" t="s">
         <v>17</v>
@@ -14493,7 +14533,7 @@
         <v>121</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>248</v>
@@ -14537,16 +14577,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>276</v>
+        <v>10</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>248</v>
@@ -14555,7 +14595,7 @@
         <v>248</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>248</v>
@@ -14573,7 +14613,7 @@
         <v>8</v>
       </c>
       <c r="N135" s="1">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="O135" s="1" t="s">
         <v>17</v>
@@ -14599,7 +14639,7 @@
         <v>16</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>248</v>
@@ -14652,7 +14692,7 @@
         <v>16</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>248</v>
@@ -14705,7 +14745,7 @@
         <v>16</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>248</v>
@@ -14758,7 +14798,7 @@
         <v>16</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>248</v>
@@ -14811,7 +14851,7 @@
         <v>16</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>248</v>
@@ -14864,7 +14904,7 @@
         <v>16</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>248</v>
@@ -14917,7 +14957,7 @@
         <v>16</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>248</v>
@@ -14970,7 +15010,7 @@
         <v>16</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>248</v>
@@ -15023,7 +15063,7 @@
         <v>16</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>10</v>
+        <v>282</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>248</v>
@@ -15073,10 +15113,10 @@
         <v>15</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>248</v>
@@ -15120,43 +15160,43 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="L146" s="3" t="s">
         <v>230</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="N146" s="1">
-        <v>11238</v>
+        <v>10011</v>
       </c>
       <c r="O146" s="1" t="s">
         <v>17</v>
@@ -15182,7 +15222,7 @@
         <v>115</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>240</v>
@@ -15226,43 +15266,43 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>332</v>
+        <v>115</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N148" s="1">
-        <v>10035</v>
+        <v>11238</v>
       </c>
       <c r="O148" s="1" t="s">
         <v>17</v>
@@ -15279,43 +15319,43 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N149" s="1">
-        <v>10025</v>
+        <v>10035</v>
       </c>
       <c r="O149" s="1" t="s">
         <v>17</v>
@@ -15341,7 +15381,7 @@
         <v>40</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>248</v>
@@ -15385,16 +15425,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>248</v>
@@ -15403,7 +15443,7 @@
         <v>248</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="I151" s="3" t="s">
         <v>248</v>
@@ -15412,16 +15452,16 @@
         <v>248</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="L151" s="3" t="s">
         <v>230</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="N151" s="1">
-        <v>11101</v>
+        <v>10025</v>
       </c>
       <c r="O151" s="1" t="s">
         <v>17</v>
@@ -15447,7 +15487,7 @@
         <v>100</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>248</v>
@@ -15491,34 +15531,34 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>275</v>
+        <v>10</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L153" s="3" t="s">
         <v>230</v>
@@ -15527,7 +15567,7 @@
         <v>36</v>
       </c>
       <c r="N153" s="1">
-        <v>11377</v>
+        <v>11101</v>
       </c>
       <c r="O153" s="1" t="s">
         <v>17</v>
@@ -15553,7 +15593,7 @@
         <v>99</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>235</v>
@@ -15606,7 +15646,7 @@
         <v>99</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>235</v>
@@ -15659,7 +15699,7 @@
         <v>99</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>10</v>
+        <v>277</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>235</v>
@@ -15712,7 +15752,7 @@
         <v>99</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>278</v>
+        <v>10</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>235</v>
@@ -15765,7 +15805,7 @@
         <v>99</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>235</v>
@@ -15818,7 +15858,7 @@
         <v>99</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>235</v>
@@ -15871,7 +15911,7 @@
         <v>99</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>235</v>
@@ -15924,7 +15964,7 @@
         <v>99</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>235</v>
@@ -15977,7 +16017,7 @@
         <v>99</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>235</v>
@@ -16021,45 +16061,45 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L163" s="3" t="s">
         <v>230</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N163" s="1">
-        <v>11217</v>
-      </c>
-      <c r="O163" s="5" t="s">
+        <v>11377</v>
+      </c>
+      <c r="O163" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P163" s="1">
@@ -16083,7 +16123,7 @@
         <v>47</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>240</v>
@@ -16112,7 +16152,7 @@
       <c r="N164" s="1">
         <v>11217</v>
       </c>
-      <c r="O164" s="1" t="s">
+      <c r="O164" s="5" t="s">
         <v>17</v>
       </c>
       <c r="P164" s="1">
@@ -16127,43 +16167,43 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L165" s="3" t="s">
         <v>230</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N165" s="1">
-        <v>10036</v>
+        <v>11217</v>
       </c>
       <c r="O165" s="1" t="s">
         <v>17</v>
@@ -16186,10 +16226,10 @@
         <v>15</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>248</v>
@@ -16233,43 +16273,43 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="L167" s="3" t="s">
         <v>230</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="N167" s="1">
-        <v>11220</v>
+        <v>10036</v>
       </c>
       <c r="O167" s="1" t="s">
         <v>17</v>
@@ -16286,97 +16326,99 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>333</v>
+        <v>15</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>334</v>
+        <v>230</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N168" s="1">
-        <v>10128</v>
+        <v>11220</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="P168" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q168" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="M169" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N169" s="1">
-        <v>10024</v>
+        <v>10128</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="P169" s="1">
         <v>0</v>
@@ -16388,66 +16430,64 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>24</v>
+        <v>335</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N170" s="1">
-        <v>10016</v>
+        <v>10024</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="P170" s="1">
         <v>0</v>
       </c>
-      <c r="Q170" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q170" s="1"/>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>10</v>
@@ -16468,24 +16508,26 @@
         <v>238</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M171" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N171" s="1">
-        <v>10003</v>
+        <v>10016</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="P171" s="1">
         <v>0</v>
       </c>
-      <c r="Q171" s="1"/>
+      <c r="Q171" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
@@ -16501,7 +16543,7 @@
         <v>30</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>238</v>
@@ -16524,7 +16566,7 @@
       <c r="L172" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="M172" s="3" t="s">
+      <c r="M172" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N172" s="1">
@@ -16543,13 +16585,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>10</v>
@@ -16576,10 +16618,10 @@
         <v>238</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="N173" s="1">
-        <v>11207</v>
+        <v>10003</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>31</v>
@@ -16594,16 +16636,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>238</v>
@@ -16626,11 +16668,11 @@
       <c r="L174" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="M174" s="1" t="s">
-        <v>38</v>
+      <c r="M174" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N174" s="1">
-        <v>11207</v>
+        <v>10003</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>31</v>
@@ -16756,7 +16798,7 @@
         <v>274</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>279</v>
+        <v>10</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>238</v>
@@ -16807,7 +16849,7 @@
         <v>274</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>238</v>
@@ -16830,7 +16872,7 @@
       <c r="L178" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="M178" s="1" t="s">
+      <c r="M178" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N178" s="1">
@@ -16858,7 +16900,7 @@
         <v>274</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>238</v>
@@ -16909,7 +16951,7 @@
         <v>274</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>238</v>
@@ -16932,7 +16974,7 @@
       <c r="L180" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="M180" s="3" t="s">
+      <c r="M180" s="1" t="s">
         <v>38</v>
       </c>
       <c r="N180" s="1">
@@ -16951,16 +16993,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>33</v>
+        <v>274</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>10</v>
+        <v>285</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>238</v>
@@ -16984,10 +17026,10 @@
         <v>238</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N181" s="1">
-        <v>10009</v>
+        <v>11207</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>31</v>
@@ -17002,16 +17044,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>33</v>
+        <v>274</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>238</v>
@@ -17034,11 +17076,11 @@
       <c r="L182" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="M182" s="3" t="s">
-        <v>8</v>
+      <c r="M182" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="N182" s="1">
-        <v>10009</v>
+        <v>11207</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>31</v>
@@ -17053,211 +17095,205 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N183" s="1">
-        <v>10001</v>
+        <v>10009</v>
       </c>
       <c r="O183" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="P183" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q183" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q183" s="1"/>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N184" s="1">
-        <v>10001</v>
+        <v>10009</v>
       </c>
       <c r="O184" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="P184" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q184" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q184" s="1"/>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>66</v>
+        <v>264</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="M185" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M185" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N185" s="1">
-        <v>10001</v>
+        <v>10009</v>
       </c>
       <c r="O185" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="P185" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q185" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q185" s="1"/>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>262</v>
+        <v>65</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>275</v>
+        <v>131</v>
       </c>
       <c r="F186" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J186" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G186" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I186" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="J186" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="K186" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M186" s="3" t="s">
-        <v>36</v>
+        <v>230</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="N186" s="1">
-        <v>11377</v>
-      </c>
-      <c r="O186" s="3" t="s">
-        <v>265</v>
+        <v>10001</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="P186" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q186" s="4" t="s">
-        <v>266</v>
+        <v>1</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
@@ -17265,52 +17301,52 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>262</v>
+        <v>65</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>284</v>
+        <v>10</v>
       </c>
       <c r="F187" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J187" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G187" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H187" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I187" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="J187" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="K187" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M187" s="3" t="s">
-        <v>36</v>
+        <v>230</v>
+      </c>
+      <c r="M187" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="N187" s="1">
-        <v>11377</v>
-      </c>
-      <c r="O187" s="3" t="s">
-        <v>265</v>
+        <v>10001</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="P187" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q187" s="4" t="s">
-        <v>266</v>
+        <v>1</v>
+      </c>
+      <c r="Q187" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
@@ -17318,52 +17354,52 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>262</v>
+        <v>65</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="F188" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J188" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G188" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H188" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I188" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="J188" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="K188" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M188" s="3" t="s">
-        <v>36</v>
+        <v>230</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="N188" s="1">
-        <v>11377</v>
-      </c>
-      <c r="O188" s="3" t="s">
-        <v>265</v>
+        <v>10001</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="P188" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q188" s="4" t="s">
-        <v>266</v>
+        <v>1</v>
+      </c>
+      <c r="Q188" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
@@ -17380,7 +17416,7 @@
         <v>263</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>230</v>
@@ -17433,7 +17469,7 @@
         <v>263</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>230</v>
@@ -17486,7 +17522,7 @@
         <v>263</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>230</v>
@@ -17530,103 +17566,105 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N192" s="1">
-        <v>11207</v>
+        <v>11377</v>
       </c>
       <c r="O192" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="P192" s="1">
         <v>0</v>
       </c>
-      <c r="Q192" s="1"/>
+      <c r="Q192" s="4" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N193" s="1">
-        <v>11249</v>
-      </c>
-      <c r="O193" s="1" t="s">
-        <v>17</v>
+        <v>11377</v>
+      </c>
+      <c r="O193" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="P193" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q193" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="Q193" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.2">
@@ -17634,52 +17672,52 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N194" s="1">
-        <v>11249</v>
-      </c>
-      <c r="O194" s="1" t="s">
-        <v>17</v>
+        <v>11377</v>
+      </c>
+      <c r="O194" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="P194" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q194" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="Q194" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.2">
@@ -17687,34 +17725,34 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L195" s="3" t="s">
         <v>230</v>
@@ -17723,17 +17761,15 @@
         <v>38</v>
       </c>
       <c r="N195" s="1">
-        <v>11249</v>
-      </c>
-      <c r="O195" s="1" t="s">
-        <v>17</v>
+        <v>11207</v>
+      </c>
+      <c r="O195" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="P195" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q195" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q195" s="1"/>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
@@ -17749,7 +17785,7 @@
         <v>286</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>235</v>
@@ -17802,7 +17838,7 @@
         <v>286</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>235</v>
@@ -17855,7 +17891,7 @@
         <v>286</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>235</v>
@@ -17908,7 +17944,7 @@
         <v>286</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>285</v>
+        <v>10</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>235</v>
@@ -17961,7 +17997,7 @@
         <v>286</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>235</v>
@@ -18014,7 +18050,7 @@
         <v>286</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>235</v>
@@ -18067,7 +18103,7 @@
         <v>286</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>235</v>
@@ -18111,52 +18147,52 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>288</v>
+        <v>15</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L203" s="3" t="s">
         <v>230</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N203" s="1">
-        <v>11373</v>
+        <v>11249</v>
       </c>
       <c r="O203" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="P203" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q203" s="4" t="s">
-        <v>291</v>
+        <v>1</v>
+      </c>
+      <c r="Q203" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
@@ -18164,72 +18200,231 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>288</v>
+        <v>15</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L204" s="3" t="s">
         <v>230</v>
       </c>
       <c r="M204" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N204" s="1">
+        <v>11249</v>
+      </c>
+      <c r="O204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P204" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q204" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1">
+        <v>93</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="L205" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="M205" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N205" s="1">
+        <v>11249</v>
+      </c>
+      <c r="O205" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P205" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q205" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1">
+        <v>94</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L206" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="M206" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N204" s="1">
+      <c r="N206" s="1">
         <v>11373</v>
       </c>
-      <c r="O204" s="1" t="s">
+      <c r="O206" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="P204" s="1">
+      <c r="P206" s="1">
         <v>0</v>
       </c>
-      <c r="Q204" s="4" t="s">
+      <c r="Q206" s="4" t="s">
         <v>291</v>
       </c>
     </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1">
+        <v>94</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="M207" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N207" s="1">
+        <v>11373</v>
+      </c>
+      <c r="O207" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P207" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q207" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:Q186">
+  <sortState ref="A2:Q207">
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q6" r:id="rId1"/>
-    <hyperlink ref="Q63" r:id="rId2"/>
-    <hyperlink ref="Q89" r:id="rId3"/>
-    <hyperlink ref="Q92" r:id="rId4"/>
-    <hyperlink ref="Q186" r:id="rId5"/>
-    <hyperlink ref="Q187" r:id="rId6"/>
-    <hyperlink ref="Q188" r:id="rId7"/>
-    <hyperlink ref="Q189" r:id="rId8"/>
-    <hyperlink ref="Q190" r:id="rId9"/>
-    <hyperlink ref="Q191" r:id="rId10"/>
-    <hyperlink ref="Q203" r:id="rId11"/>
-    <hyperlink ref="Q204" r:id="rId12"/>
+    <hyperlink ref="Q7" r:id="rId1"/>
+    <hyperlink ref="Q64" r:id="rId2"/>
+    <hyperlink ref="Q90" r:id="rId3"/>
+    <hyperlink ref="Q93" r:id="rId4"/>
+    <hyperlink ref="Q189" r:id="rId5"/>
+    <hyperlink ref="Q190" r:id="rId6"/>
+    <hyperlink ref="Q191" r:id="rId7"/>
+    <hyperlink ref="Q192" r:id="rId8"/>
+    <hyperlink ref="Q193" r:id="rId9"/>
+    <hyperlink ref="Q194" r:id="rId10"/>
+    <hyperlink ref="Q206" r:id="rId11"/>
+    <hyperlink ref="Q207" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
